--- a/data/trans_dic/P02E$contratada-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P02E$contratada-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,17 +686,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,57</t>
+          <t>0,0; 8,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,07; 9,82</t>
+          <t>1,1; 9,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,83</t>
+          <t>0,0; 7,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,34 +706,34 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,62; 13,59</t>
+          <t>3,37; 14,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 7,69</t>
+          <t>0,94; 7,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,64</t>
+          <t>0,0; 4,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,35; 10,69</t>
+          <t>3,39; 10,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,57; 5,32</t>
+          <t>0,58; 5,5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -800,49 +801,49 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,69</t>
+          <t>0,0; 3,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,28</t>
+          <t>0,0; 7,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,87; 8,7</t>
+          <t>0,87; 9,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,49</t>
+          <t>0,0; 3,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,84</t>
+          <t>0,0; 5,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,58; 5,89</t>
+          <t>0,48; 6,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,22</t>
+          <t>0,28; 2,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,5; 5,11</t>
+          <t>0,51; 4,8</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -915,37 +916,37 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,35</t>
+          <t>0,0; 9,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,97</t>
+          <t>0,0; 6,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,76</t>
+          <t>0,0; 6,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,28</t>
+          <t>0,0; 8,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,3</t>
+          <t>0,0; 4,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,68</t>
+          <t>0,0; 3,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,64; 5,53</t>
+          <t>0,64; 5,56</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1016,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,08</t>
+          <t>0,0; 6,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1035,27 +1036,27 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,07; 6,27</t>
+          <t>1,03; 6,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,73; 6,5</t>
+          <t>0,74; 6,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,43</t>
+          <t>0,0; 2,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,68; 3,73</t>
+          <t>0,64; 3,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,49; 4,73</t>
+          <t>0,0; 4,34</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1126,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,75; 30,74</t>
+          <t>2,74; 30,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,05</t>
+          <t>0,0; 19,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,26; 14,97</t>
+          <t>2,14; 15,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,95</t>
+          <t>0,0; 15,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1155,24 +1156,24 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,47; 15,17</t>
+          <t>2,45; 14,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,38</t>
+          <t>0,0; 8,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,65; 7,53</t>
+          <t>0,65; 6,89</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1240,17 +1241,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,93</t>
+          <t>0,0; 8,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,27; 12,23</t>
+          <t>1,27; 11,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,02</t>
+          <t>0,0; 10,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1260,29 +1261,29 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,92</t>
+          <t>0,0; 10,76</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,13</t>
+          <t>0,0; 5,74</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,96</t>
+          <t>0,0; 3,46</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,92; 7,59</t>
+          <t>0,94; 7,78</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,84</t>
+          <t>0,0; 4,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,9; 6,12</t>
+          <t>0,49; 6,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,42</t>
+          <t>0,0; 6,46</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,45</t>
+          <t>0,0; 2,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,04; 4,68</t>
+          <t>0,78; 4,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,47; 4,12</t>
+          <t>0,47; 4,06</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,77</t>
+          <t>0,0; 1,85</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,2; 4,12</t>
+          <t>1,05; 4,09</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,62; 3,47</t>
+          <t>0,62; 3,59</t>
         </is>
       </c>
     </row>
@@ -1455,22 +1456,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,76; 9,13</t>
+          <t>0,77; 8,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,14</t>
+          <t>0,0; 2,71</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,98</t>
+          <t>0,41; 4,41</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,83; 6,25</t>
+          <t>0,59; 6,46</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1480,22 +1481,22 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,12; 4,87</t>
+          <t>1,08; 5,04</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,23; 5,24</t>
+          <t>1,16; 5,55</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,74</t>
+          <t>0,17; 1,77</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,19; 3,94</t>
+          <t>1,09; 3,82</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1566,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,92; 3,38</t>
+          <t>0,84; 3,23</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,86</t>
+          <t>0,99; 2,8</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,52; 3,67</t>
+          <t>1,37; 3,69</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,79</t>
+          <t>0,97; 2,81</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,25; 2,7</t>
+          <t>1,22; 2,78</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,25; 3,02</t>
+          <t>1,29; 3,03</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,19; 2,65</t>
+          <t>1,1; 2,57</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,29; 2,47</t>
+          <t>1,32; 2,47</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,55; 2,92</t>
+          <t>1,56; 2,94</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con ayuda al cuidado por parte de, al menos, una persona externa contratada</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1769</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3775</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1036</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>10522</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2907</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1769</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>14297</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>3943</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5536</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>976; 8615</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5311</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2126</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4749; 21007</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>933; 7566</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6859</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>7797; 24446</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1004; 9496</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>947</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>4875</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2144</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2332</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4875</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3091</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>4432</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2002</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4839</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6383</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1195; 12414</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6554</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 7326</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>998; 12569</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>950; 8576</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1092; 10269</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>996</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2135</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2521</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1874</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2135</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>2521</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>2870</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1932</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1926</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5418</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6577</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 8730</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7013</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7274</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 9064</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>900; 7790</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1043</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>4949</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2863</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1043</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>4949</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>2863</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5259</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2110</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2023</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1850</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1866; 11038</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>873; 8078</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5859</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1855; 10805</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 7720</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>3369</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3105</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>4519</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2432</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>5801</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>3105</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>4519</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>849; 9509</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 10754</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1549; 10916</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 8331</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1990</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1787</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2059; 12332</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0; 12303</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1018; 10779</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1918</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2858</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2280</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1259</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2280</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1918</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>4117</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1964</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6675</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>794; 7476</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 7209</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1955</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 7529</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 7397</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6644</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1241; 10327</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>5082</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>2180</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>994</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>6254</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>3096</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1815</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>11336</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 4507</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1059; 12975</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 7913</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5000</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>2208; 12591</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>952; 8276</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0; 6178</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>5252; 20377</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>2019; 11718</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>4053</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>1874</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>3929</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>5009</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>2229</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>8208</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>9062</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>4103</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>12136</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>1040; 11596</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>0; 5700</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>928; 9973</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>1167; 12723</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>0; 8027</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>3461; 16221</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>3857; 18425</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>943; 10043</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>5983; 20912</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>11056</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>16701</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>17618</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>17725</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>28619</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>22539</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>28781</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>45320</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>40157</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>5288; 20210</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>9777; 27556</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>10375; 27925</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>9755; 28288</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>18523; 42096</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>14305; 33665</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>17969; 41980</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>33115; 61772</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>29124; 54874</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>